--- a/results/fsm_0204_bk0.xlsx
+++ b/results/fsm_0204_bk0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,12 +489,12 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Let's decompose the sentence. The claim is that a free Iraq will be an ally in the war on terror, which is essential. The ground is the support and equipment provided to troops. The warrant is that supporting troops and completing the mission will lead to a free Iraq. The logical issue is the assumption that a free Iraq will automatically be an ally, which lacks evidence.</t>
+          <t>Let's decompose the sentence: the claim is "A free Iraq will be an ally in the war on terror, and that's essential." The ground is the support and equipment provided to troops. The warrant is that a free Iraq contributes to winning the war on terror. The logical issue lies in the warrant; it assumes without evidence that a free Iraq will necessarily be an effective ally.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No, because the assumption that a free Iraq will automatically be an ally lacks evidence and doesn't consider the complexities of international relations and internal dynamics within Iraq.</t>
+          <t>No, the warrant is valid. A free Iraq could potentially stabilize the region and counteract terrorism, aligning with broader strategic goals. The assumption is based on historical precedents where democratic nations often collaborate against common threats.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -533,12 +533,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>You are correct in identifying the assumption as flawed. The complexities of international relations and internal dynamics within Iraq make it unlikely that a free Iraq will automatically become an ally in the war on terror without further supporting evidence.</t>
+          <t>How do you know that a free Iraq will necessarily be an ally in the war on terror? Why do you assume historical precedents of democratic nations collaborating will directly apply to Iraq, considering its unique geopolitical and historical context in this scenario?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>While complexities exist, historical examples like Germany and Japan post-WWII show that nations can become allies after significant intervention and rebuilding efforts. A free Iraq could follow a similar path, supporting the logical validity of the statement.</t>
+          <t>The assumption is that democratic nations tend to collaborate against common threats, as seen historically. A free Iraq, with democratic governance, would likely align with global efforts against terrorism due to shared interests in stability and security, despite its unique context.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -555,12 +555,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -570,26 +570,28 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>It seems that our current disagreement lies on this point: student disagrees by citing historical examples of germany and japan becoming allies post-intervention., do you agree? If yes, then we can focus our discussion on this part.</t>
+          <t>Can you provide examples from specific historical precedents where a newly democratized country in a similar geopolitical context aligned seamlessly with global efforts, despite unique challenges? This evidence might help support the assumption in the current discussion.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Post-World War II Germany and Japan are examples. Both countries transitioned to democracies and became strong allies in global security efforts, despite initial challenges. Their integration into international frameworks like NATO and economic partnerships showcases how democratization can lead to effective alliances.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'Q1': 'yes, Student argues historical examples support the logical validity of a free Iraq becoming an ally.', 'Q2': 'yes, Student disagrees by citing historical examples of Germany and Japan becoming allies post-intervention.', 'Q3': 'no'}</t>
+          <t>{'Q1': 'yes, Student argues democratic nations collaborate against common threats, suggesting a free Iraq would align against terrorism.', 'Q2': "no, Student's response elaborates on historical precedents without introducing new disagreements.", 'Q3': 'no'}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['yes, Student disagrees by citing historical examples of Germany and Japan becoming allies post-intervention.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -599,17 +601,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -619,19 +621,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>How do you know that historical examples like Germany and Japan post-WWII are applicable to Iraq's unique cultural, political, and historical context, which might affect Iraq's potential to become an ally?</t>
+          <t>Japan and Germany in the post-World War II context benefitted from specific geopolitical, economic, and social conditions facilitated by Allied countries, which were not necessarily reproducible in Iraq. Assuming a similar outcome for Iraq may overlook significant cultural, regional, and historical differences critical to evaluating the original sentence.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Your response also assumes that Iraq's context is entirely unique, ignoring historical patterns where nations have become allies post-conflict. While contexts differ, the principle of fostering alliances through support and rebuilding remains valid.</t>
+          <t>Can you provide examples where cultural, regional, and historical differences have prevented a nation from becoming an ally in similar contexts? This would help evaluate the claim about Iraq's potential as an ally.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'Q1': 'yes, you provided historical examples of democratization leading to alliances.', 'Q2': 'no, the response does not mention new disagreements.', 'Q3': 'no'}</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['yes, Student disagrees by citing historical examples of Germany and Japan becoming allies post-intervention.']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -641,101 +647,15 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>It seems that our current disagreement lies on this point: student disagrees with the assumption that iraq's context is entirely unique., do you agree? If yes, then we can focus our discussion on this part.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>{'Q1': 'yes, Student argues historical patterns support fostering alliances post-conflict despite unique contexts.', 'Q2': "yes, Student disagrees with the assumption that Iraq's context is entirely unique.", 'Q3': 'no'}</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['yes, Student disagrees by citing historical examples of Germany and Japan becoming allies post-intervention.', "yes, Student disagrees with the assumption that Iraq's context is entirely unique."]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Can you provide examples where nations with a context similar to Iraq have successfully become allies post-conflict, taking into account cultural, political, and historical differences that might influence such outcomes?</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Post-conflict Bosnia and Herzegovina, with international support, transitioned towards stability and cooperation with Western nations. Despite cultural and historical differences, it illustrates how intervention and rebuilding can foster alliances, supporting the idea that a free Iraq could become an ally.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['yes, Student disagrees by citing historical examples of Germany and Japan becoming allies post-intervention.', "yes, Student disagrees with the assumption that Iraq's context is entirely unique."]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
